--- a/ExperimentCandidate.xlsx
+++ b/ExperimentCandidate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aria Berlian\Documents\rbm_sr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aria Berlian\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F98CE9-9D1E-4BF1-89CC-EDB4C4082F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726D3BD8-971B-4F6F-951E-7B8CCFE9761E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="64">
   <si>
     <t>train</t>
   </si>
@@ -215,20 +215,26 @@
     <t>airplane.bmp</t>
   </si>
   <si>
+    <t>mandrill_256.png</t>
+  </si>
+  <si>
+    <t>512,768,768,512</t>
+  </si>
+  <si>
     <t>sigmoid</t>
   </si>
   <si>
-    <t>relu</t>
-  </si>
-  <si>
-    <t>tanh</t>
+    <t>lr</t>
+  </si>
+  <si>
+    <t>lr_ft</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,6 +246,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -579,15 +591,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV12"/>
+  <dimension ref="A1:AX8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.08984375" customWidth="1"/>
+    <col min="3" max="3" width="18.26953125" customWidth="1"/>
+    <col min="4" max="4" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="30" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="39" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="46" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="12.08984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -654,94 +699,100 @@
       <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
         <v>49</v>
@@ -783,20 +834,31 @@
         <v>2</v>
       </c>
       <c r="Q2">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="R2">
         <v>4</v>
       </c>
       <c r="S2">
-        <f>((N2-Q2)/R2+1)^2</f>
-        <v>16129</v>
+        <v>15625</v>
+      </c>
+      <c r="T2" t="s">
+        <v>60</v>
       </c>
       <c r="U2">
         <v>512</v>
       </c>
+      <c r="V2" t="s">
+        <v>61</v>
+      </c>
+      <c r="W2">
+        <v>1E-3</v>
+      </c>
+      <c r="X2">
+        <v>1E-3</v>
+      </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -846,28 +908,39 @@
         <v>2</v>
       </c>
       <c r="Q3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="R3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S9" si="0">((N3-Q3)/R3+1)^2</f>
-        <v>4096</v>
+        <v>15625</v>
+      </c>
+      <c r="T3" t="s">
+        <v>60</v>
       </c>
       <c r="U3">
         <v>512</v>
       </c>
+      <c r="V3" t="s">
+        <v>61</v>
+      </c>
+      <c r="W3">
+        <v>1E-3</v>
+      </c>
+      <c r="X3">
+        <v>1E-3</v>
+      </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
         <v>49</v>
@@ -915,22 +988,33 @@
         <v>4</v>
       </c>
       <c r="S4">
-        <f t="shared" si="0"/>
         <v>15625</v>
+      </c>
+      <c r="T4" t="s">
+        <v>60</v>
       </c>
       <c r="U4">
         <v>512</v>
       </c>
+      <c r="V4" t="s">
+        <v>61</v>
+      </c>
+      <c r="W4">
+        <v>1E-3</v>
+      </c>
+      <c r="X4">
+        <v>1E-3</v>
+      </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
         <v>49</v>
@@ -975,25 +1059,36 @@
         <v>16</v>
       </c>
       <c r="R5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="S5">
-        <f t="shared" si="0"/>
-        <v>3969</v>
+        <v>15625</v>
+      </c>
+      <c r="T5" t="s">
+        <v>60</v>
       </c>
       <c r="U5">
         <v>512</v>
       </c>
+      <c r="V5" t="s">
+        <v>61</v>
+      </c>
+      <c r="W5">
+        <v>1E-3</v>
+      </c>
+      <c r="X5">
+        <v>1E-3</v>
+      </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
         <v>49</v>
@@ -1038,25 +1133,36 @@
         <v>16</v>
       </c>
       <c r="R6">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="S6">
-        <f t="shared" si="0"/>
-        <v>1024</v>
+        <v>15625</v>
+      </c>
+      <c r="T6" t="s">
+        <v>60</v>
       </c>
       <c r="U6">
         <v>512</v>
       </c>
+      <c r="V6" t="s">
+        <v>61</v>
+      </c>
+      <c r="W6">
+        <v>1E-3</v>
+      </c>
+      <c r="X6">
+        <v>1E-3</v>
+      </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
         <v>49</v>
@@ -1098,28 +1204,39 @@
         <v>2</v>
       </c>
       <c r="Q7">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="R7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="S7">
-        <f t="shared" si="0"/>
-        <v>3721</v>
+        <v>15625</v>
+      </c>
+      <c r="T7" t="s">
+        <v>60</v>
       </c>
       <c r="U7">
         <v>512</v>
       </c>
+      <c r="V7" t="s">
+        <v>61</v>
+      </c>
+      <c r="W7">
+        <v>1E-3</v>
+      </c>
+      <c r="X7">
+        <v>1E-3</v>
+      </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
         <v>49</v>
@@ -1161,281 +1278,32 @@
         <v>2</v>
       </c>
       <c r="Q8">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="R8">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="S8">
-        <f t="shared" si="0"/>
-        <v>961</v>
+        <v>15625</v>
+      </c>
+      <c r="T8" t="s">
+        <v>60</v>
       </c>
       <c r="U8">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" t="s">
-        <v>54</v>
-      </c>
-      <c r="J9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K9" t="s">
-        <v>56</v>
-      </c>
-      <c r="L9" t="s">
-        <v>57</v>
-      </c>
-      <c r="M9" t="s">
-        <v>58</v>
-      </c>
-      <c r="N9">
         <v>512</v>
       </c>
-      <c r="O9">
-        <v>256</v>
-      </c>
-      <c r="P9">
-        <v>2</v>
-      </c>
-      <c r="Q9">
-        <v>32</v>
-      </c>
-      <c r="R9">
-        <v>32</v>
-      </c>
-      <c r="S9">
-        <f t="shared" si="0"/>
-        <v>256</v>
-      </c>
-      <c r="U9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" t="s">
-        <v>53</v>
-      </c>
-      <c r="I10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J10" t="s">
-        <v>55</v>
-      </c>
-      <c r="K10" t="s">
-        <v>56</v>
-      </c>
-      <c r="L10" t="s">
-        <v>57</v>
-      </c>
-      <c r="M10" t="s">
-        <v>58</v>
-      </c>
-      <c r="N10">
-        <v>512</v>
-      </c>
-      <c r="O10">
-        <v>256</v>
-      </c>
-      <c r="P10">
-        <v>2</v>
-      </c>
-      <c r="Q10">
-        <v>32</v>
-      </c>
-      <c r="R10">
-        <v>32</v>
-      </c>
-      <c r="S10">
-        <f t="shared" ref="S10:S12" si="1">((N10-Q10)/R10+1)^2</f>
-        <v>256</v>
-      </c>
-      <c r="U10">
-        <v>8</v>
-      </c>
-      <c r="V10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" t="s">
-        <v>53</v>
-      </c>
-      <c r="I11" t="s">
-        <v>54</v>
-      </c>
-      <c r="J11" t="s">
-        <v>55</v>
-      </c>
-      <c r="K11" t="s">
-        <v>56</v>
-      </c>
-      <c r="L11" t="s">
-        <v>57</v>
-      </c>
-      <c r="M11" t="s">
-        <v>58</v>
-      </c>
-      <c r="N11">
-        <v>512</v>
-      </c>
-      <c r="O11">
-        <v>256</v>
-      </c>
-      <c r="P11">
-        <v>2</v>
-      </c>
-      <c r="Q11">
-        <v>32</v>
-      </c>
-      <c r="R11">
-        <v>32</v>
-      </c>
-      <c r="S11">
-        <f t="shared" si="1"/>
-        <v>256</v>
-      </c>
-      <c r="U11">
-        <v>8</v>
-      </c>
-      <c r="V11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" t="s">
-        <v>53</v>
-      </c>
-      <c r="I12" t="s">
-        <v>54</v>
-      </c>
-      <c r="J12" t="s">
-        <v>55</v>
-      </c>
-      <c r="K12" t="s">
-        <v>56</v>
-      </c>
-      <c r="L12" t="s">
-        <v>57</v>
-      </c>
-      <c r="M12" t="s">
-        <v>58</v>
-      </c>
-      <c r="N12">
-        <v>512</v>
-      </c>
-      <c r="O12">
-        <v>256</v>
-      </c>
-      <c r="P12">
-        <v>2</v>
-      </c>
-      <c r="Q12">
-        <v>32</v>
-      </c>
-      <c r="R12">
-        <v>32</v>
-      </c>
-      <c r="S12">
-        <f t="shared" si="1"/>
-        <v>256</v>
-      </c>
-      <c r="U12">
-        <v>8</v>
-      </c>
-      <c r="V12" t="s">
+      <c r="V8" t="s">
         <v>61</v>
+      </c>
+      <c r="W8">
+        <v>1E-3</v>
+      </c>
+      <c r="X8">
+        <v>1E-3</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>